--- a/drugs.xlsx
+++ b/drugs.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,7 +445,49 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>5,HGBVHJ,NO,8896,2025-05-24 10:36:07</t>
+          <t>4,ADSS,YES,343,2025-05-24 19:54:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>5,GSGDF,YES,455,2025-05-24 19:55:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>6,JHV,YES,4445,2025-05-25 09:19:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>7,RREWRW,NO,4432,2025-05-25 09:19:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>8,JGHJGH,YES,766,2025-05-25 09:19:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>9,IOUIU,YES,67778,2025-05-25 09:19:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>10,TEWR,YES,44,2025-05-25 09:19:37</t>
         </is>
       </c>
     </row>

--- a/drugs.xlsx
+++ b/drugs.xlsx
@@ -445,49 +445,49 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4,ADSS,YES,343,2025-05-24 19:54:40</t>
+          <t>5,GSGDF,YES,455,2025-05-24 19:55:06</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>5,GSGDF,YES,455,2025-05-24 19:55:06</t>
+          <t>6,JHV,YES,4445,2025-05-25 09:19:09</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6,JHV,YES,4445,2025-05-25 09:19:09</t>
+          <t>7,RREWRW,NO,4432,2025-05-25 09:19:19</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>7,RREWRW,NO,4432,2025-05-25 09:19:19</t>
+          <t>8,JGHJGH,YES,766,2025-05-25 09:19:25</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>8,JGHJGH,YES,766,2025-05-25 09:19:25</t>
+          <t>9,IOUIU,YES,67778,2025-05-25 09:19:32</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>9,IOUIU,YES,67778,2025-05-25 09:19:32</t>
+          <t>10,DSA,YES,34,2025-05-25 10:43:43</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>10,TEWR,YES,44,2025-05-25 09:19:37</t>
+          <t>11,JK,YES,87,2025-05-25 11:19:20</t>
         </is>
       </c>
     </row>

--- a/drugs.xlsx
+++ b/drugs.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,21 +473,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>9,IOUIU,YES,67778,2025-05-25 09:19:32</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>10,DSA,YES,34,2025-05-25 10:43:43</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>11,JK,YES,87,2025-05-25 11:19:20</t>
+          <t>9,SDA,YES,23,2025-05-26 18:01:41</t>
         </is>
       </c>
     </row>

--- a/drugs.xlsx
+++ b/drugs.xlsx
@@ -424,56 +424,56 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>ID,DRUG,ON_RECEPT,NO_PACKAGES_AVAILABLE,DATE</t>
+          <t>ID,DRUG,ON_RECEPT,NO_PACKAGES_AVAILABLE,DATE,RECEPT_ID</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1,POLOPIRYNA,NO,1200,2024-03-25 00:00:00</t>
+          <t>1,POLOPIRYNA,NO,1200,2024-03-25 00:00:00,nan</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3,AMOTAX,YES,336,2015-02-14 00:00:00</t>
+          <t>3,AMOTAX,YES,336,2015-02-14 00:00:00,nan</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>5,GSGDF,YES,455,2025-05-24 19:55:06</t>
+          <t>5,GSGDF,YES,455,2025-05-24 19:55:06,nan</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>6,JHV,YES,4445,2025-05-25 09:19:09</t>
+          <t>6,JHV,YES,4445,2025-05-25 09:19:09,nan</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>7,RREWRW,NO,4432,2025-05-25 09:19:19</t>
+          <t>7,RREWRW,NO,4432,2025-05-25 09:19:19,nan</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>8,JGHJGH,YES,766,2025-05-25 09:19:25</t>
+          <t>10,EWQ,YES,232,2025-05-26 21:05:04,nan</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>9,SDA,YES,23,2025-05-26 18:01:41</t>
+          <t>12,SDSAD,YES,2311,2025-05-27 15:51:10,2344.0</t>
         </is>
       </c>
     </row>

--- a/drugs.xlsx
+++ b/drugs.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -431,49 +431,42 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1,POLOPIRYNA,NO,1200,2024-03-25 00:00:00,nan</t>
+          <t>3,AMOTAX,YES,336,2015-02-14 00:00:00,None</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3,AMOTAX,YES,336,2015-02-14 00:00:00,nan</t>
+          <t>5,GSGDF,YES,455,2025-05-24 19:55:06,None</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>5,GSGDF,YES,455,2025-05-24 19:55:06,nan</t>
+          <t>6,JHV,YES,4445,2025-05-25 09:19:09,None</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>6,JHV,YES,4445,2025-05-25 09:19:09,nan</t>
+          <t>10,EWQ,YES,232,2025-05-26 21:05:04,None</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>7,RREWRW,NO,4432,2025-05-25 09:19:19,nan</t>
+          <t>12,SDSAD,YES,2311,2025-05-27 15:51:10,None</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>10,EWQ,YES,232,2025-05-26 21:05:04,nan</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>12,SDSAD,YES,2311,2025-05-27 15:51:10,2344.0</t>
+          <t>13,YTU,YES,423,2025-05-27 18:07:20,432</t>
         </is>
       </c>
     </row>

--- a/drugs.xlsx
+++ b/drugs.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -431,42 +431,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>3,AMOTAX,YES,336,2015-02-14 00:00:00,None</t>
+          <t>4,TEST,YES,2423,2025-05-28 19:57:26,1123</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>5,GSGDF,YES,455,2025-05-24 19:55:06,None</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>6,JHV,YES,4445,2025-05-25 09:19:09,None</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>10,EWQ,YES,232,2025-05-26 21:05:04,None</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>12,SDSAD,YES,2311,2025-05-27 15:51:10,None</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>13,YTU,YES,423,2025-05-27 18:07:20,432</t>
+          <t>5,TEST2,NO,4342,2025-05-28 19:57:38,</t>
         </is>
       </c>
     </row>

--- a/drugs.xlsx
+++ b/drugs.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -431,14 +431,161 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>4,TEST,YES,2423,2025-05-28 19:57:26,1123</t>
+          <t>24,TEST,YES,323,2025-05-29 16:42:01,321</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>5,TEST2,NO,4342,2025-05-28 19:57:38,</t>
+          <t>28,RWERW,NO,23,2025-05-29 17:55:51,</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>29,REWR,YES,3,2025-05-29 17:56:18,212</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>30,IBUPROM,NO,79,2025-05-29 18:33:32,</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>32,IBUPROM,YES,36,2025-05-29 18:33:32,88751</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>33,ASPIRYNA,YES,43,2025-05-29 18:33:32,67217</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>34,NO-SPA,NO,61,2025-05-29 18:33:32,</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>35,NO-SPA,NO,22,2025-05-29 18:34:05,</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>36,XYLOMETAZOLINUM,NO,41,2025-05-29 18:34:05,</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>37,XYLOMETAZOLINUM,NO,46,2025-05-29 18:34:05,</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>38,XYLOMETAZOLINUM,NO,78,2025-05-29 18:34:05,</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>39,NO-SPA,YES,24,2025-05-29 18:34:05,57189</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>40,ASPIRYNA,NO,45,2025-05-29 18:35:05,</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>41,TRAMADOL,NO,55,2025-05-29 18:38:36,</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>42,FEXOFENADYNA,YES,20,2025-05-29 18:38:36,27407</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>43,OMEPRAZOL,NO,70,2025-05-29 18:38:36,</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>44,METFORMINA,NO,11,2025-05-29 18:38:36,</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>45,FEXOFENADYNA,YES,56,2025-05-29 18:38:36,34714</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>46,CITALOPRAM,NO,18,2025-05-29 18:38:36,</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>47,MORFINA,NO,44,2025-05-29 18:38:36,</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>48,FLUOKSETYNA,NO,98,2025-05-29 18:38:36,</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>49,FLUOKSETYNA,NO,45,2025-05-29 18:38:36,</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>50,LORAZEPAM,NO,80,2025-05-29 18:38:36,</t>
         </is>
       </c>
     </row>

--- a/drugs.xlsx
+++ b/drugs.xlsx
@@ -473,7 +473,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>34,NO-SPA,NO,61,2025-05-29 18:33:32,</t>
+          <t>34,NO-SPA,NO,64,2025-05-29 18:33:32,</t>
         </is>
       </c>
     </row>
@@ -564,7 +564,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>47,MORFINA,NO,44,2025-05-29 18:38:36,</t>
+          <t>47,MORFINA,NO,46,2025-05-29 18:38:36,</t>
         </is>
       </c>
     </row>

--- a/drugs.xlsx
+++ b/drugs.xlsx
@@ -438,21 +438,21 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>28,RWERW,NO,23,2025-05-29 17:55:51,</t>
+          <t>28,RWERW,NO,26,2025-05-29 17:55:51,</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>29,REWR,YES,3,2025-05-29 17:56:18,212</t>
+          <t>29,REWR,YES,4,2025-05-29 17:56:18,212</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>30,IBUPROM,NO,79,2025-05-29 18:33:32,</t>
+          <t>30,IBUPROM,NO,81,2025-05-29 18:33:32,</t>
         </is>
       </c>
     </row>
@@ -473,7 +473,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>34,NO-SPA,NO,64,2025-05-29 18:33:32,</t>
+          <t>34,NO-SPA,NO,67,2025-05-29 18:33:32,</t>
         </is>
       </c>
     </row>
@@ -487,7 +487,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>36,XYLOMETAZOLINUM,NO,41,2025-05-29 18:34:05,</t>
+          <t>36,XYLOMETAZOLINUM,NO,43,2025-05-29 18:34:05,</t>
         </is>
       </c>
     </row>
@@ -543,7 +543,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>44,METFORMINA,NO,11,2025-05-29 18:38:36,</t>
+          <t>44,METFORMINA,NO,12,2025-05-29 18:38:36,</t>
         </is>
       </c>
     </row>
@@ -564,7 +564,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>47,MORFINA,NO,46,2025-05-29 18:38:36,</t>
+          <t>47,MORFINA,NO,48,2025-05-29 18:38:36,</t>
         </is>
       </c>
     </row>

--- a/drugs.xlsx
+++ b/drugs.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A24"/>
+  <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -431,161 +431,168 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>24,TEST,YES,323,2025-05-29 16:42:01,321</t>
+          <t>28,RWERW,NO,29,2025-05-29 17:55:51,</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>28,RWERW,NO,26,2025-05-29 17:55:51,</t>
+          <t>29,REWR,YES,40,2025-05-29 17:56:18,212</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>29,REWR,YES,4,2025-05-29 17:56:18,212</t>
+          <t>30,IBUPROM,NO,81,2025-05-29 18:33:32,</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>30,IBUPROM,NO,81,2025-05-29 18:33:32,</t>
+          <t>32,IBUPROM,YES,36,2025-05-29 18:33:32,88751</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>32,IBUPROM,YES,36,2025-05-29 18:33:32,88751</t>
+          <t>33,ASPIRYNA,YES,43,2025-05-29 18:33:32,67217</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>33,ASPIRYNA,YES,43,2025-05-29 18:33:32,67217</t>
+          <t>34,NO-SPA,NO,67,2025-05-29 18:33:32,</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>34,NO-SPA,NO,67,2025-05-29 18:33:32,</t>
+          <t>35,NO-SPA,NO,54,2025-05-29 18:34:05,</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>35,NO-SPA,NO,22,2025-05-29 18:34:05,</t>
+          <t>38,XYLOMETAZOLINUM,NO,78,2025-05-29 18:34:05,</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>36,XYLOMETAZOLINUM,NO,43,2025-05-29 18:34:05,</t>
+          <t>39,NO-SPA,YES,24,2025-05-29 18:34:05,57189</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>37,XYLOMETAZOLINUM,NO,46,2025-05-29 18:34:05,</t>
+          <t>40,ASPIRYNA,NO,45,2025-05-29 18:35:05,</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>38,XYLOMETAZOLINUM,NO,78,2025-05-29 18:34:05,</t>
+          <t>41,TRAMADOL,NO,55,2025-05-29 18:38:36,</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>39,NO-SPA,YES,24,2025-05-29 18:34:05,57189</t>
+          <t>42,FEXOFENADYNA,YES,20,2025-05-29 18:38:36,27407</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>40,ASPIRYNA,NO,45,2025-05-29 18:35:05,</t>
+          <t>43,OMEPRAZOL,NO,70,2025-05-29 18:38:36,</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>41,TRAMADOL,NO,55,2025-05-29 18:38:36,</t>
+          <t>44,METFORMINA,NO,12,2025-05-29 18:38:36,</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>42,FEXOFENADYNA,YES,20,2025-05-29 18:38:36,27407</t>
+          <t>45,FEXOFENADYNA,YES,56,2025-05-29 18:38:36,34714</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>43,OMEPRAZOL,NO,70,2025-05-29 18:38:36,</t>
+          <t>46,CITALOPRAM,NO,18,2025-05-29 18:38:36,</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>44,METFORMINA,NO,12,2025-05-29 18:38:36,</t>
+          <t>48,FLUOKSETYNA,NO,98,2025-05-29 18:38:36,</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>45,FEXOFENADYNA,YES,56,2025-05-29 18:38:36,34714</t>
+          <t>49,FLUOKSETYNA,NO,45,2025-05-29 18:38:36,</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>46,CITALOPRAM,NO,18,2025-05-29 18:38:36,</t>
+          <t>50,LORAZEPAM,NO,80,2025-05-29 18:38:36,</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>47,MORFINA,NO,48,2025-05-29 18:38:36,</t>
+          <t>51,TEST,NO,323,2025-06-03 16:31:20,</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>48,FLUOKSETYNA,NO,98,2025-05-29 18:38:36,</t>
+          <t>52,XYLOMETAZOLINUM,YES,43,2025-06-03 00:00:00,342</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>49,FLUOKSETYNA,NO,45,2025-05-29 18:38:36,</t>
+          <t>53,XYLOMETAZOLINUM,YES,46,2025-06-03 00:00:00,343</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>50,LORAZEPAM,NO,80,2025-05-29 18:38:36,</t>
+          <t>54,GFDGD,NO,44,2025-06-03 00:00:00,</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>55,DSAD,NO,23,2025-06-03,</t>
         </is>
       </c>
     </row>

--- a/drugs.xlsx
+++ b/drugs.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A25"/>
+  <dimension ref="A1:A35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,6 +596,76 @@
         </is>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>56,IBUPROFEN,YES,43,2025-06-03 18:27:20,36431</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>57,HYDROCHLOROTIAZYD,NO,38,2025-06-03 18:27:20,</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>58,SERTRALINA,YES,76,2025-06-03 18:27:20,67237</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>59,HYDROCHLOROTIAZYD,NO,74,2025-06-03 18:27:20,</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>60,FLUOKSETYNA,NO,26,2025-06-03 18:27:20,</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>61,METOPROLOL,YES,81,2025-06-03 18:27:20,80871</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>62,PROPRANOLOL,YES,25,2025-06-03 18:27:20,97093</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>63,ALBUTEROL,NO,11,2025-06-03 18:27:20,</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>64,ATORWASTATYNA,NO,54,2025-06-03 18:27:20,</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>65,DIAZEPAM,YES,63,2025-06-03 18:27:20,23261</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/drugs.xlsx
+++ b/drugs.xlsx
@@ -431,28 +431,28 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>28,RWERW,NO,29,2025-05-29 17:55:51,</t>
+          <t>28,RWERW,NO,12,2025-05-29 17:55:51,</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>29,REWR,YES,40,2025-05-29 17:56:18,212</t>
+          <t>29,REWR,YES,140,2025-05-29 17:56:18,212</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>30,IBUPROM,NO,81,2025-05-29 18:33:32,</t>
+          <t>30,IBUPROM,NO,60,2025-05-29 18:33:32,</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>32,IBUPROM,YES,36,2025-05-29 18:33:32,88751</t>
+          <t>32,IBUPROM,YES,20,2025-05-29 18:33:32,88751</t>
         </is>
       </c>
     </row>
@@ -466,7 +466,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>34,NO-SPA,NO,67,2025-05-29 18:33:32,</t>
+          <t>34,NO-SPA,NO,66,2025-05-29 18:33:32,</t>
         </is>
       </c>
     </row>
@@ -592,7 +592,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>55,DSAD,NO,23,2025-06-03,</t>
+          <t>55,DSAD,NO,23,2025-06-03 00:00:00,</t>
         </is>
       </c>
     </row>

--- a/drugs.xlsx
+++ b/drugs.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A35"/>
+  <dimension ref="A1:A52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,245 +424,364 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>ID,DRUG,ON_RECEPT,NO_PACKAGES_AVAILABLE,DATE,RECEPT_ID</t>
+          <t>ID,DRUG,ON_RECEPT,NO_PACKAGES_AVAILABLE,DATE,RECEPT_ID,PRICE</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>28,RWERW,NO,29,2025-05-29 17:55:51,</t>
+          <t>13,TEST,YES,123,2025-06-05,1233,12.33</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>29,REWR,YES,40,2025-05-29 17:56:18,212</t>
+          <t>14,AMOKSYCYLINA,YES,54,2025-06-05,5791,44.68</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>30,IBUPROM,NO,81,2025-05-29 18:33:32,</t>
+          <t>15,KLARITROMYCYNA,NO,40,2025-06-05,----,37.23</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>32,IBUPROM,YES,36,2025-05-29 18:33:32,88751</t>
+          <t>16,CEFALEKSYNA,NO,30,2025-06-05,----,23.19</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>33,ASPIRYNA,YES,43,2025-05-29 18:33:32,67217</t>
+          <t>17,METFORMINA,YES,27,2025-06-05,3385,14.02</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>34,NO-SPA,NO,67,2025-05-29 18:33:32,</t>
+          <t>18,LISINOPRYL,YES,87,2025-06-05,7390,32.82</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>35,NO-SPA,NO,54,2025-05-29 18:34:05,</t>
+          <t>19,ATORWASTATYNA,YES,59,2025-06-05,9578,94.35</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>38,XYLOMETAZOLINUM,NO,78,2025-05-29 18:34:05,</t>
+          <t>20,OMEPRAZOL,NO,99,2025-06-05,----,73.24</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>39,NO-SPA,YES,24,2025-05-29 18:34:05,57189</t>
+          <t>21,ALBUTEROL,NO,47,2025-06-05,----,97.83</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>40,ASPIRYNA,NO,45,2025-05-29 18:35:05,</t>
+          <t>22,FEXOFENADYNA,NO,94,2025-06-05,----,53.95</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>41,TRAMADOL,NO,55,2025-05-29 18:38:36,</t>
+          <t>23,KETOPROFEN,NO,22,2025-06-05,----,95.21</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>42,FEXOFENADYNA,YES,20,2025-05-29 18:38:36,27407</t>
+          <t>24,DICLOFENAK,NO,82,2025-06-05,----,47.38</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>43,OMEPRAZOL,NO,70,2025-05-29 18:38:36,</t>
+          <t>25,TRAMADOL,YES,62,2025-06-05,1195,44.19</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>44,METFORMINA,NO,12,2025-05-29 18:38:36,</t>
+          <t>26,MORFINA,NO,11,2025-06-05,----,87.27</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>45,FEXOFENADYNA,YES,56,2025-05-29 18:38:36,34714</t>
+          <t>27,PAROKSETYNA,NO,88,2025-06-05,----,36.55</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>46,CITALOPRAM,NO,18,2025-05-29 18:38:36,</t>
+          <t>28,SERTRALINA,YES,61,2025-06-05,7309,68.79</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>48,FLUOKSETYNA,NO,98,2025-05-29 18:38:36,</t>
+          <t>29,FLUOKSETYNA,NO,15,2025-06-05,----,12.37</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>49,FLUOKSETYNA,NO,45,2025-05-29 18:38:36,</t>
+          <t>30,CITALOPRAM,YES,88,2025-06-05,3317,40.51</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>50,LORAZEPAM,NO,80,2025-05-29 18:38:36,</t>
+          <t>31,PROPRANOLOL,NO,84,2025-06-05,----,64.08</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>51,TEST,NO,323,2025-06-03 16:31:20,</t>
+          <t>32,METOPROLOL,YES,56,2025-06-05,7703,14.97</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>52,XYLOMETAZOLINUM,YES,43,2025-06-03 00:00:00,342</t>
+          <t>33,FURAZYD,NO,100,2025-06-05,----,75.90</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>53,XYLOMETAZOLINUM,YES,46,2025-06-03 00:00:00,343</t>
+          <t>34,HYDROCHLOROTIAZYD,NO,58,2025-06-05,----,98.71</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>54,GFDGD,NO,44,2025-06-03 00:00:00,</t>
+          <t>35,WARFARYNA,YES,29,2025-06-05,5432,66.76</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>55,DSAD,NO,23,2025-06-03,</t>
+          <t>36,DIAZEPAM,NO,19,2025-06-05,----,13.96</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>56,IBUPROFEN,YES,43,2025-06-03 18:27:20,36431</t>
+          <t>37,LORAZEPAM,NO,62,2025-06-05,----,53.22</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>57,HYDROCHLOROTIAZYD,NO,38,2025-06-03 18:27:20,</t>
+          <t>38,NAPROKSEN,NO,35,2025-06-05,----,62.80</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>58,SERTRALINA,YES,76,2025-06-03 18:27:20,67237</t>
+          <t>39,IBUPROFEN,YES,73,2025-06-05,1962,15.41</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>59,HYDROCHLOROTIAZYD,NO,74,2025-06-03 18:27:20,</t>
+          <t>40,KLONAZYRAM,YES,80,2025-06-05,1811,25.23</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>60,FLUOKSETYNA,NO,26,2025-06-03 18:27:20,</t>
+          <t>41,ALPRAZOLAM,YES,55,2025-06-05,5778,82.11</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>61,METOPROLOL,YES,81,2025-06-03 18:27:20,80871</t>
+          <t>42,GABAPENTYNA,NO,43,2025-06-05,----,81.58</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>62,PROPRANOLOL,YES,25,2025-06-03 18:27:20,97093</t>
+          <t>43,LORATADYNA,NO,26,2025-06-05,----,69.39</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>63,ALBUTEROL,NO,11,2025-06-03 18:27:20,</t>
+          <t>44,ASPIRYNA,NO,99,2025-06-05,----,57.68</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>64,ATORWASTATYNA,NO,54,2025-06-03 18:27:20,</t>
+          <t>45,IBUPROM,NO,47,2025-06-05,----,10.13</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>65,DIAZEPAM,YES,63,2025-06-03 18:27:20,23261</t>
+          <t>46,PARACETAMOL,NO,75,2025-06-05,----,93.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>47,XYLOMETAZOLINUM,YES,69,2025-06-05,7179,21.26</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>48,NO-SPA,NO,59,2025-06-05,----,89.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>49,PANTOPRAZOL,YES,78,2025-06-05,6544,77.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>50,RANITYDYNA,NO,76,2025-06-05,----,52.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>51,MEBEVERYNA,YES,94,2025-06-05,4606,56.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>52,BUSKOPAN,YES,98,2025-06-05,5204,64.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>53,FENSPIRYD,NO,14,2025-06-05,----,82.82</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>54,CHLORFENAMINA,YES,33,2025-06-05,9285,48.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>55,KLEMASTYNA,YES,78,2025-06-05,6555,38.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>56,DROTAVERIN,YES,13,2025-06-05,6801,13.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>57,GLIMEPIRYD,NO,48,2025-06-05,----,88.48</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>58,TAMSYLOZYNA,YES,16,2025-06-05,4033,84.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>59,FINASTERYD,YES,100,2025-06-05,5861,42.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>60,LEWOTYROKSYNA,YES,46,2025-06-05,1214,86.13</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>61,NITROGLICERYNA,YES,30,2025-06-05,3101,71.96</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>62,SALBUTAMOL,NO,89,2025-06-05,----,90.88</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>63,MONTELUKAST,NO,70,2025-06-05,----,23.37</t>
         </is>
       </c>
     </row>

--- a/drugs.xlsx
+++ b/drugs.xlsx
@@ -431,357 +431,357 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>13,TEST,YES,123,2025-06-05,1233,12.33</t>
+          <t>13,TEST,YES,123,2025-06-05 00:00:00,1233,12.33</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>14,AMOKSYCYLINA,YES,54,2025-06-05,5791,44.68</t>
+          <t>14,AMOKSYCYLINA,YES,54,2025-06-05 00:00:00,5791,44.68</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>15,KLARITROMYCYNA,NO,40,2025-06-05,----,37.23</t>
+          <t>15,KLARITROMYCYNA,NO,40,2025-06-05 00:00:00,----,37.23</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>16,CEFALEKSYNA,NO,30,2025-06-05,----,23.19</t>
+          <t>16,CEFALEKSYNA,NO,30,2025-06-05 00:00:00,----,23.19</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>17,METFORMINA,YES,27,2025-06-05,3385,14.02</t>
+          <t>17,METFORMINA,YES,27,2025-06-05 00:00:00,3385,14.02</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>18,LISINOPRYL,YES,87,2025-06-05,7390,32.82</t>
+          <t>18,LISINOPRYL,YES,87,2025-06-05 00:00:00,7390,32.82</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>19,ATORWASTATYNA,YES,59,2025-06-05,9578,94.35</t>
+          <t>19,ATORWASTATYNA,YES,59,2025-06-05 00:00:00,9578,94.35</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20,OMEPRAZOL,NO,99,2025-06-05,----,73.24</t>
+          <t>20,OMEPRAZOL,NO,99,2025-06-05 00:00:00,----,73.24</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>21,ALBUTEROL,NO,47,2025-06-05,----,97.83</t>
+          <t>22,FEXOFENADYNA,NO,94,2025-06-05 00:00:00,----,53.95</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>22,FEXOFENADYNA,NO,94,2025-06-05,----,53.95</t>
+          <t>23,KETOPROFEN,NO,22,2025-06-05 00:00:00,----,95.21</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>23,KETOPROFEN,NO,22,2025-06-05,----,95.21</t>
+          <t>24,DICLOFENAK,NO,82,2025-06-05 00:00:00,----,47.38</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>24,DICLOFENAK,NO,82,2025-06-05,----,47.38</t>
+          <t>25,TRAMADOL,YES,62,2025-06-05 00:00:00,1195,44.19</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>25,TRAMADOL,YES,62,2025-06-05,1195,44.19</t>
+          <t>26,MORFINA,NO,11,2025-06-05 00:00:00,----,87.27</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>26,MORFINA,NO,11,2025-06-05,----,87.27</t>
+          <t>27,PAROKSETYNA,NO,88,2025-06-05 00:00:00,----,36.55</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>27,PAROKSETYNA,NO,88,2025-06-05,----,36.55</t>
+          <t>28,SERTRALINA,YES,61,2025-06-05 00:00:00,7309,68.79</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>28,SERTRALINA,YES,61,2025-06-05,7309,68.79</t>
+          <t>29,FLUOKSETYNA,NO,15,2025-06-05 00:00:00,----,12.37</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>29,FLUOKSETYNA,NO,15,2025-06-05,----,12.37</t>
+          <t>30,CITALOPRAM,YES,88,2025-06-05 00:00:00,3317,40.51</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>30,CITALOPRAM,YES,88,2025-06-05,3317,40.51</t>
+          <t>31,PROPRANOLOL,NO,84,2025-06-05 00:00:00,----,64.08</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>31,PROPRANOLOL,NO,84,2025-06-05,----,64.08</t>
+          <t>32,METOPROLOL,YES,56,2025-06-05 00:00:00,7703,14.97</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>32,METOPROLOL,YES,56,2025-06-05,7703,14.97</t>
+          <t>33,FURAZYD,NO,100,2025-06-05 00:00:00,----,75.9</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>33,FURAZYD,NO,100,2025-06-05,----,75.90</t>
+          <t>34,HYDROCHLOROTIAZYD,NO,58,2025-06-05 00:00:00,----,98.71</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>34,HYDROCHLOROTIAZYD,NO,58,2025-06-05,----,98.71</t>
+          <t>35,WARFARYNA,YES,29,2025-06-05 00:00:00,5432,66.76</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>35,WARFARYNA,YES,29,2025-06-05,5432,66.76</t>
+          <t>36,DIAZEPAM,NO,19,2025-06-05 00:00:00,----,13.96</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>36,DIAZEPAM,NO,19,2025-06-05,----,13.96</t>
+          <t>37,LORAZEPAM,NO,62,2025-06-05 00:00:00,----,53.22</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>37,LORAZEPAM,NO,62,2025-06-05,----,53.22</t>
+          <t>38,NAPROKSEN,NO,35,2025-06-05 00:00:00,----,62.8</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>38,NAPROKSEN,NO,35,2025-06-05,----,62.80</t>
+          <t>39,IBUPROFEN,YES,73,2025-06-05 00:00:00,1962,15.41</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>39,IBUPROFEN,YES,73,2025-06-05,1962,15.41</t>
+          <t>40,KLONAZYRAM,YES,80,2025-06-05 00:00:00,1811,25.23</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>40,KLONAZYRAM,YES,80,2025-06-05,1811,25.23</t>
+          <t>41,ALPRAZOLAM,YES,55,2025-06-05 00:00:00,5778,82.11</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>41,ALPRAZOLAM,YES,55,2025-06-05,5778,82.11</t>
+          <t>42,GABAPENTYNA,NO,43,2025-06-05 00:00:00,----,81.58</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>42,GABAPENTYNA,NO,43,2025-06-05,----,81.58</t>
+          <t>43,LORATADYNA,NO,26,2025-06-05 00:00:00,----,69.39</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>43,LORATADYNA,NO,26,2025-06-05,----,69.39</t>
+          <t>44,ASPIRYNA,NO,99,2025-06-05 00:00:00,----,57.68</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>44,ASPIRYNA,NO,99,2025-06-05,----,57.68</t>
+          <t>45,IBUPROM,NO,47,2025-06-05 00:00:00,----,10.13</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>45,IBUPROM,NO,47,2025-06-05,----,10.13</t>
+          <t>46,PARACETAMOL,NO,75,2025-06-05 00:00:00,----,93.71</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>46,PARACETAMOL,NO,75,2025-06-05,----,93.71</t>
+          <t>47,XYLOMETAZOLINUM,YES,69,2025-06-05 00:00:00,7179,21.26</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>47,XYLOMETAZOLINUM,YES,69,2025-06-05,7179,21.26</t>
+          <t>48,NO-SPA,NO,59,2025-06-05 00:00:00,----,89.67</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>48,NO-SPA,NO,59,2025-06-05,----,89.67</t>
+          <t>49,PANTOPRAZOL,YES,78,2025-06-05 00:00:00,6544,77.52</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>49,PANTOPRAZOL,YES,78,2025-06-05,6544,77.52</t>
+          <t>50,RANITYDYNA,NO,76,2025-06-05 00:00:00,----,52.41</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>50,RANITYDYNA,NO,76,2025-06-05,----,52.41</t>
+          <t>51,MEBEVERYNA,YES,94,2025-06-05 00:00:00,4606,56.15</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>51,MEBEVERYNA,YES,94,2025-06-05,4606,56.15</t>
+          <t>52,BUSKOPAN,YES,98,2025-06-05 00:00:00,5204,64.72</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>52,BUSKOPAN,YES,98,2025-06-05,5204,64.72</t>
+          <t>53,FENSPIRYD,NO,14,2025-06-05 00:00:00,----,82.82</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>53,FENSPIRYD,NO,14,2025-06-05,----,82.82</t>
+          <t>54,CHLORFENAMINA,YES,33,2025-06-05 00:00:00,9285,48.67</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>54,CHLORFENAMINA,YES,33,2025-06-05,9285,48.67</t>
+          <t>55,KLEMASTYNA,YES,78,2025-06-05 00:00:00,6555,38.29</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>55,KLEMASTYNA,YES,78,2025-06-05,6555,38.29</t>
+          <t>56,DROTAVERIN,YES,13,2025-06-05 00:00:00,6801,13.72</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>56,DROTAVERIN,YES,13,2025-06-05,6801,13.72</t>
+          <t>57,GLIMEPIRYD,NO,48,2025-06-05 00:00:00,----,88.48</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>57,GLIMEPIRYD,NO,48,2025-06-05,----,88.48</t>
+          <t>58,TAMSYLOZYNA,YES,16,2025-06-05 00:00:00,4033,84.6</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>58,TAMSYLOZYNA,YES,16,2025-06-05,4033,84.60</t>
+          <t>59,FINASTERYD,YES,100,2025-06-05 00:00:00,5861,42.0</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>59,FINASTERYD,YES,100,2025-06-05,5861,42.00</t>
+          <t>60,LEWOTYROKSYNA,YES,46,2025-06-05 00:00:00,1214,86.13</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>60,LEWOTYROKSYNA,YES,46,2025-06-05,1214,86.13</t>
+          <t>61,NITROGLICERYNA,YES,30,2025-06-05 00:00:00,3101,71.96</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>61,NITROGLICERYNA,YES,30,2025-06-05,3101,71.96</t>
+          <t>62,SALBUTAMOL,NO,89,2025-06-05 00:00:00,----,90.88</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>62,SALBUTAMOL,NO,89,2025-06-05,----,90.88</t>
+          <t>63,MONTELUKAST,NO,70,2025-06-05 00:00:00,----,23.37</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>63,MONTELUKAST,NO,70,2025-06-05,----,23.37</t>
+          <t>64,ALBUTEROL,YES,47,2025-06-05,2334,97.83</t>
         </is>
       </c>
     </row>

--- a/drugs.xlsx
+++ b/drugs.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A52"/>
+  <dimension ref="A1:A50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -431,357 +431,343 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>13,TEST,YES,123,2025-06-05 00:00:00,1233,12.33</t>
+          <t>14,AMOKSYCYLINA,YES,3,2025-06-05,5791,44.68</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>14,AMOKSYCYLINA,YES,54,2025-06-05 00:00:00,5791,44.68</t>
+          <t>15,KLARITROMYCYNA,NO,17,2025-06-05,----,37.23</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>15,KLARITROMYCYNA,NO,40,2025-06-05 00:00:00,----,37.23</t>
+          <t>16,CEFALEKSYNA,NO,19,2025-06-05,----,23.19</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>16,CEFALEKSYNA,NO,30,2025-06-05 00:00:00,----,23.19</t>
+          <t>17,METFORMINA,YES,37,2025-06-05,3385,14.02</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>17,METFORMINA,YES,27,2025-06-05 00:00:00,3385,14.02</t>
+          <t>18,LISINOPRYL,YES,75,2025-06-05,7390,32.82</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>18,LISINOPRYL,YES,87,2025-06-05 00:00:00,7390,32.82</t>
+          <t>19,ATORWASTATYNA,YES,60,2025-06-05,9578,94.35</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>19,ATORWASTATYNA,YES,59,2025-06-05 00:00:00,9578,94.35</t>
+          <t>20,OMEPRAZOL,NO,99,2025-06-05,----,73.24</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20,OMEPRAZOL,NO,99,2025-06-05 00:00:00,----,73.24</t>
+          <t>22,FEXOFENADYNA,NO,117,2025-06-05,----,53.95</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>22,FEXOFENADYNA,NO,94,2025-06-05 00:00:00,----,53.95</t>
+          <t>23,KETOPROFEN,NO,22,2025-06-05,----,95.21</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>23,KETOPROFEN,NO,22,2025-06-05 00:00:00,----,95.21</t>
+          <t>24,DICLOFENAK,NO,82,2025-06-05,----,47.38</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>24,DICLOFENAK,NO,82,2025-06-05 00:00:00,----,47.38</t>
+          <t>25,TRAMADOL,YES,62,2025-06-05,1195,44.19</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>25,TRAMADOL,YES,62,2025-06-05 00:00:00,1195,44.19</t>
+          <t>26,MORFINA,NO,11,2025-06-05,----,87.27</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>26,MORFINA,NO,11,2025-06-05 00:00:00,----,87.27</t>
+          <t>27,PAROKSETYNA,NO,88,2025-06-05,----,36.55</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>27,PAROKSETYNA,NO,88,2025-06-05 00:00:00,----,36.55</t>
+          <t>28,SERTRALINA,YES,61,2025-06-05,7309,68.79</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>28,SERTRALINA,YES,61,2025-06-05 00:00:00,7309,68.79</t>
+          <t>29,FLUOKSETYNA,NO,15,2025-06-05,----,12.37</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>29,FLUOKSETYNA,NO,15,2025-06-05 00:00:00,----,12.37</t>
+          <t>30,CITALOPRAM,YES,88,2025-06-05,3317,40.51</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>30,CITALOPRAM,YES,88,2025-06-05 00:00:00,3317,40.51</t>
+          <t>32,METOPROLOL,YES,56,2025-06-05,7703,14.97</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>31,PROPRANOLOL,NO,84,2025-06-05 00:00:00,----,64.08</t>
+          <t>33,FURAZYD,NO,100,2025-06-05,----,75.9</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>32,METOPROLOL,YES,56,2025-06-05 00:00:00,7703,14.97</t>
+          <t>34,HYDROCHLOROTIAZYD,NO,58,2025-06-05,----,98.71</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>33,FURAZYD,NO,100,2025-06-05 00:00:00,----,75.9</t>
+          <t>35,WARFARYNA,YES,29,2025-06-05,5432,66.76</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>34,HYDROCHLOROTIAZYD,NO,58,2025-06-05 00:00:00,----,98.71</t>
+          <t>36,DIAZEPAM,NO,19,2025-06-05,----,13.96</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>35,WARFARYNA,YES,29,2025-06-05 00:00:00,5432,66.76</t>
+          <t>37,LORAZEPAM,NO,62,2025-06-05,----,53.22</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>36,DIAZEPAM,NO,19,2025-06-05 00:00:00,----,13.96</t>
+          <t>38,NAPROKSEN,NO,35,2025-06-05,----,62.8</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>37,LORAZEPAM,NO,62,2025-06-05 00:00:00,----,53.22</t>
+          <t>39,IBUPROFEN,YES,73,2025-06-05,1962,15.41</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>38,NAPROKSEN,NO,35,2025-06-05 00:00:00,----,62.8</t>
+          <t>40,KLONAZYRAM,YES,80,2025-06-05,1811,25.23</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>39,IBUPROFEN,YES,73,2025-06-05 00:00:00,1962,15.41</t>
+          <t>41,ALPRAZOLAM,YES,55,2025-06-05,5778,82.11</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>40,KLONAZYRAM,YES,80,2025-06-05 00:00:00,1811,25.23</t>
+          <t>42,GABAPENTYNA,NO,43,2025-06-05,----,81.58</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>41,ALPRAZOLAM,YES,55,2025-06-05 00:00:00,5778,82.11</t>
+          <t>43,LORATADYNA,NO,26,2025-06-05,----,69.39</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>42,GABAPENTYNA,NO,43,2025-06-05 00:00:00,----,81.58</t>
+          <t>44,ASPIRYNA,NO,99,2025-06-05,----,57.68</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>43,LORATADYNA,NO,26,2025-06-05 00:00:00,----,69.39</t>
+          <t>45,IBUPROM,NO,47,2025-06-05,----,10.13</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>44,ASPIRYNA,NO,99,2025-06-05 00:00:00,----,57.68</t>
+          <t>46,PARACETAMOL,NO,75,2025-06-05,----,93.71</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>45,IBUPROM,NO,47,2025-06-05 00:00:00,----,10.13</t>
+          <t>47,XYLOMETAZOLINUM,YES,69,2025-06-05,7179,21.26</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>46,PARACETAMOL,NO,75,2025-06-05 00:00:00,----,93.71</t>
+          <t>48,NO-SPA,NO,59,2025-06-05,----,89.67</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>47,XYLOMETAZOLINUM,YES,69,2025-06-05 00:00:00,7179,21.26</t>
+          <t>49,PANTOPRAZOL,YES,66,2025-06-05,6544,77.52</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>48,NO-SPA,NO,59,2025-06-05 00:00:00,----,89.67</t>
+          <t>50,RANITYDYNA,NO,76,2025-06-05,----,52.41</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>49,PANTOPRAZOL,YES,78,2025-06-05 00:00:00,6544,77.52</t>
+          <t>51,MEBEVERYNA,YES,94,2025-06-05,4606,56.15</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>50,RANITYDYNA,NO,76,2025-06-05 00:00:00,----,52.41</t>
+          <t>52,BUSKOPAN,YES,98,2025-06-05,5204,64.72</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>51,MEBEVERYNA,YES,94,2025-06-05 00:00:00,4606,56.15</t>
+          <t>53,FENSPIRYD,NO,14,2025-06-05,----,82.82</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>52,BUSKOPAN,YES,98,2025-06-05 00:00:00,5204,64.72</t>
+          <t>54,CHLORFENAMINA,YES,33,2025-06-05,9285,48.67</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>53,FENSPIRYD,NO,14,2025-06-05 00:00:00,----,82.82</t>
+          <t>55,KLEMASTYNA,YES,78,2025-06-05,6555,38.29</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>54,CHLORFENAMINA,YES,33,2025-06-05 00:00:00,9285,48.67</t>
+          <t>56,DROTAVERIN,YES,13,2025-06-05,6801,13.72</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>55,KLEMASTYNA,YES,78,2025-06-05 00:00:00,6555,38.29</t>
+          <t>57,GLIMEPIRYD,NO,48,2025-06-05,----,88.48</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>56,DROTAVERIN,YES,13,2025-06-05 00:00:00,6801,13.72</t>
+          <t>58,TAMSYLOZYNA,YES,16,2025-06-05,4033,84.6</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>57,GLIMEPIRYD,NO,48,2025-06-05 00:00:00,----,88.48</t>
+          <t>59,FINASTERYD,YES,100,2025-06-05,5861,42.0</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>58,TAMSYLOZYNA,YES,16,2025-06-05 00:00:00,4033,84.6</t>
+          <t>60,LEWOTYROKSYNA,YES,46,2025-06-05,1214,86.13</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>59,FINASTERYD,YES,100,2025-06-05 00:00:00,5861,42.0</t>
+          <t>61,NITROGLICERYNA,YES,30,2025-06-05,3101,71.96</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>60,LEWOTYROKSYNA,YES,46,2025-06-05 00:00:00,1214,86.13</t>
+          <t>63,MONTELUKAST,NO,70,2025-06-05,----,23.37</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>61,NITROGLICERYNA,YES,30,2025-06-05 00:00:00,3101,71.96</t>
+          <t>64,ALBUTEROL,YES,47,2025-06-05,2334,97.83</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>62,SALBUTAMOL,NO,89,2025-06-05 00:00:00,----,90.88</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>63,MONTELUKAST,NO,70,2025-06-05 00:00:00,----,23.37</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>64,ALBUTEROL,YES,47,2025-06-05,2334,97.83</t>
+          <t>65,SALBUTAMOL,YES,89,2025-06-05,556,90.88</t>
         </is>
       </c>
     </row>

--- a/drugs.xlsx
+++ b/drugs.xlsx
@@ -431,28 +431,28 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>14,AMOKSYCYLINA,YES,3,2025-06-05,5791,44.68</t>
+          <t>14,AMOKSYCYLINA,YES,2,2025-06-05,5791,44.68</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>15,KLARITROMYCYNA,NO,17,2025-06-05,----,37.23</t>
+          <t>15,KLARITROMYCYNA,NO,14,2025-06-05,----,37.23</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>16,CEFALEKSYNA,NO,19,2025-06-05,----,23.19</t>
+          <t>16,CEFALEKSYNA,NO,15,2025-06-05,----,23.19</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>17,METFORMINA,YES,37,2025-06-05,3385,14.02</t>
+          <t>17,METFORMINA,YES,35,2025-06-05,3385,14.02</t>
         </is>
       </c>
     </row>

--- a/drugs.xlsx
+++ b/drugs.xlsx
@@ -480,14 +480,14 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>22,FEXOFENADYNA,NO,117,2025-06-05,----,53.95</t>
+          <t>22,FEXOFENADYNA,NO,119,2025-06-05,----,53.95</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>23,KETOPROFEN,NO,22,2025-06-05,----,95.21</t>
+          <t>23,KETOPROFEN,NO,24,2025-06-05,----,95.21</t>
         </is>
       </c>
     </row>
@@ -550,224 +550,224 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>33,FURAZYD,NO,100,2025-06-05,----,75.9</t>
+          <t>34,HYDROCHLOROTIAZYD,NO,58,2025-06-05,----,98.71</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>34,HYDROCHLOROTIAZYD,NO,58,2025-06-05,----,98.71</t>
+          <t>35,WARFARYNA,YES,29,2025-06-05,5432,66.76</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>35,WARFARYNA,YES,29,2025-06-05,5432,66.76</t>
+          <t>36,DIAZEPAM,NO,19,2025-06-05,----,13.96</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>36,DIAZEPAM,NO,19,2025-06-05,----,13.96</t>
+          <t>37,LORAZEPAM,NO,62,2025-06-05,----,53.22</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>37,LORAZEPAM,NO,62,2025-06-05,----,53.22</t>
+          <t>38,NAPROKSEN,NO,35,2025-06-05,----,62.8</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>38,NAPROKSEN,NO,35,2025-06-05,----,62.8</t>
+          <t>39,IBUPROFEN,YES,73,2025-06-05,1962,15.41</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>39,IBUPROFEN,YES,73,2025-06-05,1962,15.41</t>
+          <t>40,KLONAZYRAM,YES,80,2025-06-05,1811,25.23</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>40,KLONAZYRAM,YES,80,2025-06-05,1811,25.23</t>
+          <t>41,ALPRAZOLAM,YES,55,2025-06-05,5778,82.11</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>41,ALPRAZOLAM,YES,55,2025-06-05,5778,82.11</t>
+          <t>42,GABAPENTYNA,NO,43,2025-06-05,----,81.58</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>42,GABAPENTYNA,NO,43,2025-06-05,----,81.58</t>
+          <t>43,LORATADYNA,NO,26,2025-06-05,----,69.39</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>43,LORATADYNA,NO,26,2025-06-05,----,69.39</t>
+          <t>44,ASPIRYNA,NO,99,2025-06-05,----,57.68</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>44,ASPIRYNA,NO,99,2025-06-05,----,57.68</t>
+          <t>45,IBUPROM,NO,47,2025-06-05,----,10.13</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>45,IBUPROM,NO,47,2025-06-05,----,10.13</t>
+          <t>46,PARACETAMOL,NO,75,2025-06-05,----,93.71</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>46,PARACETAMOL,NO,75,2025-06-05,----,93.71</t>
+          <t>47,XYLOMETAZOLINUM,YES,69,2025-06-05,7179,21.26</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>47,XYLOMETAZOLINUM,YES,69,2025-06-05,7179,21.26</t>
+          <t>48,NO-SPA,NO,59,2025-06-05,----,89.67</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>48,NO-SPA,NO,59,2025-06-05,----,89.67</t>
+          <t>49,PANTOPRAZOL,YES,66,2025-06-05,6544,77.52</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>49,PANTOPRAZOL,YES,66,2025-06-05,6544,77.52</t>
+          <t>50,RANITYDYNA,NO,76,2025-06-05,----,52.41</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>50,RANITYDYNA,NO,76,2025-06-05,----,52.41</t>
+          <t>51,MEBEVERYNA,YES,94,2025-06-05,4606,56.15</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>51,MEBEVERYNA,YES,94,2025-06-05,4606,56.15</t>
+          <t>52,BUSKOPAN,YES,98,2025-06-05,5204,64.72</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>52,BUSKOPAN,YES,98,2025-06-05,5204,64.72</t>
+          <t>53,FENSPIRYD,NO,14,2025-06-05,----,82.82</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>53,FENSPIRYD,NO,14,2025-06-05,----,82.82</t>
+          <t>54,CHLORFENAMINA,YES,33,2025-06-05,9285,48.67</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>54,CHLORFENAMINA,YES,33,2025-06-05,9285,48.67</t>
+          <t>55,KLEMASTYNA,YES,78,2025-06-05,6555,38.29</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>55,KLEMASTYNA,YES,78,2025-06-05,6555,38.29</t>
+          <t>56,DROTAVERIN,YES,13,2025-06-05,6801,13.72</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>56,DROTAVERIN,YES,13,2025-06-05,6801,13.72</t>
+          <t>57,GLIMEPIRYD,NO,48,2025-06-05,----,88.48</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>57,GLIMEPIRYD,NO,48,2025-06-05,----,88.48</t>
+          <t>58,TAMSYLOZYNA,YES,16,2025-06-05,4033,84.6</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>58,TAMSYLOZYNA,YES,16,2025-06-05,4033,84.6</t>
+          <t>59,FINASTERYD,YES,100,2025-06-05,5861,42.0</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>59,FINASTERYD,YES,100,2025-06-05,5861,42.0</t>
+          <t>60,LEWOTYROKSYNA,YES,46,2025-06-05,1214,86.13</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>60,LEWOTYROKSYNA,YES,46,2025-06-05,1214,86.13</t>
+          <t>61,NITROGLICERYNA,YES,30,2025-06-05,3101,71.96</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>61,NITROGLICERYNA,YES,30,2025-06-05,3101,71.96</t>
+          <t>63,MONTELUKAST,NO,70,2025-06-05,----,23.37</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>63,MONTELUKAST,NO,70,2025-06-05,----,23.37</t>
+          <t>64,ALBUTEROL,YES,47,2025-06-05,2334,97.83</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>64,ALBUTEROL,YES,47,2025-06-05,2334,97.83</t>
+          <t>65,SALBUTAMOL,YES,89,2025-06-05,556,90.88</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>65,SALBUTAMOL,YES,89,2025-06-05,556,90.88</t>
+          <t>66,XENONENO,YES,21,2025-06-13,123222,34.0</t>
         </is>
       </c>
     </row>

--- a/drugs.xlsx
+++ b/drugs.xlsx
@@ -480,7 +480,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>22,FEXOFENADYNA,NO,119,2025-06-05,----,53.95</t>
+          <t>22,FEXOFENADYNA,NO,121,2025-06-05,----,53.95</t>
         </is>
       </c>
     </row>
@@ -662,7 +662,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>50,RANITYDYNA,NO,76,2025-06-05,----,52.41</t>
+          <t>50,RANITYDYNA,NO,74,2025-06-05,----,52.41</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>53,FENSPIRYD,NO,14,2025-06-05,----,82.82</t>
+          <t>53,FENSPIRYD,NO,11,2025-06-05,----,82.82</t>
         </is>
       </c>
     </row>

--- a/drugs.xlsx
+++ b/drugs.xlsx
@@ -473,7 +473,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20,OMEPRAZOL,NO,99,2025-06-05,----,73.24</t>
+          <t>20,OMEPRAZOL,NO,97,2025-06-05,----,73.24</t>
         </is>
       </c>
     </row>
@@ -494,7 +494,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>24,DICLOFENAK,NO,82,2025-06-05,----,47.38</t>
+          <t>24,DICLOFENAK,NO,81,2025-06-05,----,47.38</t>
         </is>
       </c>
     </row>
